--- a/tests/test_data/test_basic_run.xlsx
+++ b/tests/test_data/test_basic_run.xlsx
@@ -522,28 +522,28 @@
         <v>32.85454545454546</v>
       </c>
       <c r="H2">
-        <v>34.88531468531469</v>
+        <v>35.07914438502674</v>
       </c>
       <c r="I2">
-        <v>35.89510489510489</v>
+        <v>36.52299465240642</v>
       </c>
       <c r="J2">
-        <v>36.64195804195805</v>
+        <v>37.76577540106952</v>
       </c>
       <c r="K2">
-        <v>37.12587412587412</v>
+        <v>38.80748663101604</v>
       </c>
       <c r="L2">
-        <v>37.34685314685314</v>
+        <v>39.64812834224599</v>
       </c>
       <c r="M2">
-        <v>37.30489510489511</v>
+        <v>40.28770053475936</v>
       </c>
       <c r="N2">
-        <v>37</v>
+        <v>40.72620320855615</v>
       </c>
       <c r="O2">
-        <v>39</v>
+        <v>40.96363636363637</v>
       </c>
       <c r="P2">
         <v>41</v>
@@ -572,28 +572,28 @@
         <v>15.4</v>
       </c>
       <c r="H3">
-        <v>16.43076923076923</v>
+        <v>16.51764705882353</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>17.28235294117647</v>
       </c>
       <c r="J3">
-        <v>17.44615384615385</v>
+        <v>17.95294117647059</v>
       </c>
       <c r="K3">
-        <v>17.76923076923077</v>
+        <v>18.52941176470588</v>
       </c>
       <c r="L3">
-        <v>17.96923076923077</v>
+        <v>19.01176470588235</v>
       </c>
       <c r="M3">
-        <v>18.04615384615385</v>
+        <v>19.4</v>
       </c>
       <c r="N3">
-        <v>18</v>
+        <v>19.69411764705882</v>
       </c>
       <c r="O3">
-        <v>19</v>
+        <v>19.89411764705882</v>
       </c>
       <c r="P3">
         <v>20</v>
@@ -622,28 +622,28 @@
         <v>17.45454545454546</v>
       </c>
       <c r="H4">
-        <v>18.45454545454546</v>
+        <v>18.56149732620321</v>
       </c>
       <c r="I4">
-        <v>18.89510489510489</v>
+        <v>19.24064171122994</v>
       </c>
       <c r="J4">
-        <v>19.1958041958042</v>
+        <v>19.81283422459893</v>
       </c>
       <c r="K4">
-        <v>19.35664335664336</v>
+        <v>20.27807486631016</v>
       </c>
       <c r="L4">
-        <v>19.37762237762238</v>
+        <v>20.63636363636364</v>
       </c>
       <c r="M4">
-        <v>19.25874125874126</v>
+        <v>20.88770053475936</v>
       </c>
       <c r="N4">
-        <v>19</v>
+        <v>21.03208556149733</v>
       </c>
       <c r="O4">
-        <v>20</v>
+        <v>21.06951871657754</v>
       </c>
       <c r="P4">
         <v>21</v>
@@ -672,28 +672,28 @@
         <v>32.85454545454546</v>
       </c>
       <c r="H5">
-        <v>34.88531468531469</v>
+        <v>35.07914438502674</v>
       </c>
       <c r="I5">
-        <v>35.89510489510489</v>
+        <v>36.52299465240642</v>
       </c>
       <c r="J5">
-        <v>36.64195804195805</v>
+        <v>37.76577540106952</v>
       </c>
       <c r="K5">
-        <v>37.12587412587412</v>
+        <v>38.80748663101604</v>
       </c>
       <c r="L5">
-        <v>37.34685314685314</v>
+        <v>39.64812834224599</v>
       </c>
       <c r="M5">
-        <v>37.30489510489511</v>
+        <v>40.28770053475936</v>
       </c>
       <c r="N5">
-        <v>37</v>
+        <v>40.72620320855615</v>
       </c>
       <c r="O5">
-        <v>39</v>
+        <v>40.96363636363637</v>
       </c>
       <c r="P5">
         <v>41</v>
@@ -722,28 +722,28 @@
         <v>15.4</v>
       </c>
       <c r="H6">
-        <v>16.43076923076923</v>
+        <v>16.51764705882353</v>
       </c>
       <c r="I6">
-        <v>17</v>
+        <v>17.28235294117647</v>
       </c>
       <c r="J6">
-        <v>17.44615384615385</v>
+        <v>17.95294117647059</v>
       </c>
       <c r="K6">
-        <v>17.76923076923077</v>
+        <v>18.52941176470588</v>
       </c>
       <c r="L6">
-        <v>17.96923076923077</v>
+        <v>19.01176470588235</v>
       </c>
       <c r="M6">
-        <v>18.04615384615385</v>
+        <v>19.4</v>
       </c>
       <c r="N6">
-        <v>18</v>
+        <v>19.69411764705882</v>
       </c>
       <c r="O6">
-        <v>19</v>
+        <v>19.89411764705882</v>
       </c>
       <c r="P6">
         <v>20</v>
@@ -772,28 +772,28 @@
         <v>17.45454545454546</v>
       </c>
       <c r="H7">
-        <v>18.45454545454546</v>
+        <v>18.56149732620321</v>
       </c>
       <c r="I7">
-        <v>18.89510489510489</v>
+        <v>19.24064171122994</v>
       </c>
       <c r="J7">
-        <v>19.1958041958042</v>
+        <v>19.81283422459893</v>
       </c>
       <c r="K7">
-        <v>19.35664335664336</v>
+        <v>20.27807486631016</v>
       </c>
       <c r="L7">
-        <v>19.37762237762238</v>
+        <v>20.63636363636364</v>
       </c>
       <c r="M7">
-        <v>19.25874125874126</v>
+        <v>20.88770053475936</v>
       </c>
       <c r="N7">
-        <v>19</v>
+        <v>21.03208556149733</v>
       </c>
       <c r="O7">
-        <v>20</v>
+        <v>21.06951871657754</v>
       </c>
       <c r="P7">
         <v>21</v>
